--- a/Simulator/Results/target-1.xlsx
+++ b/Simulator/Results/target-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t xml:space="preserve">Drone</t>
   </si>
@@ -37,10 +37,13 @@
     <t xml:space="preserve">interval recharges</t>
   </si>
   <si>
-    <t xml:space="preserve">stop</t>
+    <t xml:space="preserve">manouvers</t>
   </si>
   <si>
     <t xml:space="preserve">target was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_interval</t>
   </si>
   <si>
     <t xml:space="preserve">ncc</t>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">inteval recharges</t>
   </si>
   <si>
+    <t xml:space="preserve">Manouvers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Target</t>
   </si>
 </sst>
@@ -74,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,6 +102,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,12 +153,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,6 +175,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF4C4C4C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -166,17 +243,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="H119" activeCellId="0" sqref="H119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="9" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,32 +283,38 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,44 +322,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>695.642857142857</v>
+        <v>328.391304347826</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>701.857142857143</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1988</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>13</v>
+        <v>107.423529411765</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="n">
         <f aca="false">AVERAGE(B2,B6,B10,B14,B18,B22,B26,B30,B34,B38,B42,B46,B50,B54,B58,B62,B66,B70,B74,B78,B82,B86,B90,B94,B98,B102,B106,B110,B114,B118)</f>
-        <v>18.9666666666667</v>
+        <v>19.6666666666667</v>
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B2,B6,B10,B14,B18,B22,B26,B30,B34,B38,B42,B46,B50,B54,B58,B62,B66,B70,B74,B78,B82,B86,B90,B94,B98,B102,B106,B110,B114,B118)</f>
-        <v>4.28550528590918</v>
+        <v>3.91010087963071</v>
       </c>
       <c r="M2" s="1" t="n">
         <f aca="false">AVERAGE(C2,C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46,C50,C54,C58,C62,C66,C70,C74,C78,C82,C86,C90,C94,C98,C102,C106,C110,C114,C118)</f>
-        <v>515.815289250392</v>
+        <v>487.405525417356</v>
       </c>
       <c r="N2" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C2,C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46,C50,C54,C58,C62,C66,C70,C74,C78,C82,C86,C90,C94,C98,C102,C106,C110,C114,C118)</f>
-        <v>108.95167071725</v>
+        <v>95.6375098937022</v>
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">AVERAGE(D2,D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46,D50,D54,D58,D62,D66,D70,D74,D78,D82,D86,D90,D94,D98,D102,D106,D110,D114,D118)</f>
@@ -286,11 +374,19 @@
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">AVERAGE(E2,E6,E10,E14,E18,E22,E26,E30,E34,E38,E42,E46,E50,E54,E58,E62,E66,E70,E74,E78,E82,E86,E90,E94,E98,E102,E106,E110,E114,E118)</f>
-        <v>702.166666666667</v>
+        <v>701.940476190476</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E2,E6,E10,E14,E18,E22,E26,E30,E34,E38,E42,E46,E50,E54,E58,E62,E66,E70,E74,E78,E82,E86,E90,E94,E98,E102,E106,E110,E114,E118)</f>
-        <v>0.891443325071236</v>
+        <v>0.66267940282591</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <f aca="false">AVERAGE(F2,F6,F10,F14,F18,F22,F26,F30,F34,F38,F42,F46,F50,F54,F58,F62,F66,F70,F74,F78,F82,F86,F90,F94,F98,F102,F106,F110,F114,F118)</f>
+        <v>1979.96666666667</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F2,F6,F10,F14,F18,F22,F26,F30,F34,F38,F42,F46,F50,F54,F58,F62,F66,F70,F74,F78,F82,F86,F90,F94,F98,F102,F106,F110,F114,F118)</f>
+        <v>83.9386614671028</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,38 +394,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>454.181818181818</v>
+        <v>434.7</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>1944</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
         <f aca="false">AVERAGE(B3,B7,B11,B15,B19,B23,B27,B31,B35,B39,B43,B47,B51,B55,B59,B63,B67,B71,B75,B79,B83,B87,B91,B95,B99,B103,B107,B111,B115,B119)</f>
-        <v>19.7333333333333</v>
+        <v>18.9333333333333</v>
       </c>
       <c r="L3" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B3,B7,B11,B15,B19,B23,B27,B31,B35,B39,B43,B47,B51,B55,B59,B63,B67,B71,B75,B79,B83,B87,B91,B95,B99,B103,B107,B111,B115,B119)</f>
-        <v>4.12256662233075</v>
+        <v>5.0261538199922</v>
       </c>
       <c r="M3" s="1" t="n">
         <f aca="false">AVERAGE(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43,C47,C51,C55,C59,C63,C67,C71,C75,C79,C83,C87,C91,C95,C99,C103,C107,C111,C115,C119)</f>
-        <v>495.422423745565</v>
+        <v>532.216161755198</v>
       </c>
       <c r="N3" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43,C47,C51,C55,C59,C63,C67,C71,C75,C79,C83,C87,C91,C95,C99,C103,C107,C111,C115,C119)</f>
-        <v>108.788433309463</v>
+        <v>145.126224717132</v>
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">AVERAGE(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43,D47,D51,D55,D59,D63,D67,D71,D75,D79,D83,D87,D91,D95,D99,D103,D107,D111,D115,D119)</f>
@@ -341,11 +437,19 @@
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">AVERAGE(E3,E7,E11,E15,E19,E23,E27,E31,E35,E39,E43,E47,E51,E55,E59,E63,E67,E71,E75,E79,E83,E87,E91,E95,E99,E103,E107,E111,E115,E119)</f>
-        <v>702.152380952381</v>
+        <v>702.178571428571</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E3,E7,E11,E15,E19,E23,E27,E31,E35,E39,E43,E47,E51,E55,E59,E63,E67,E71,E75,E79,E83,E87,E91,E95,E99,E103,E107,E111,E115,E119)</f>
-        <v>0.752712404387516</v>
+        <v>0.650156966918484</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <f aca="false">AVERAGE(F3,F7,F11,F15,F19,F23,F27,F31,F35,F39,F43,F47,F51,F55,F59,F63,F67,F71,F75,F79,F83,F87,F91,F95,F99,F103,F107,F111,F115,F119)</f>
+        <v>1958.73333333333</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F3,F7,F11,F15,F19,F23,F27,F31,F35,F39,F43,F47,F51,F55,F59,F63,F67,F71,F75,F79,F83,F87,F91,F95,F99,F103,F107,F111,F115,F119)</f>
+        <v>78.2802373243436</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,38 +457,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>885.272727272727</v>
+        <v>375.708333333333</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>1895</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(B4,B8,B12,B16,B20,B24,B28,B32,B36,B40,B44,B48,B52,B56,B60,B64,B68,B72,B76,B80,B84,B88,B92,B96,B100,B104,B108,B112,B116,B120)</f>
-        <v>17.6666666666667</v>
+        <v>19.6333333333333</v>
       </c>
       <c r="L4" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B4,B8,B12,B16,B20,B24,B28,B32,B36,B40,B44,B48,B52,B56,B60,B64,B68,B72,B76,B80,B84,B88,B92,B96,B100,B104,B108,B112,B116,B120)</f>
-        <v>4.83965104343508</v>
+        <v>4.49060748179526</v>
       </c>
       <c r="M4" s="1" t="n">
         <f aca="false">AVERAGE(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44,C48,C52,C56,C60,C64,C68,C72,C76,C80,C84,C88,C92,C96,C100,C104,C108,C112,C116,C120)</f>
-        <v>578.808304250952</v>
+        <v>515.540593369327</v>
       </c>
       <c r="N4" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44,C48,C52,C56,C60,C64,C68,C72,C76,C80,C84,C88,C92,C96,C100,C104,C108,C112,C116,C120)</f>
-        <v>162.242562307211</v>
+        <v>147.266901936485</v>
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">AVERAGE(D4,D8,D12,D16,D20,D24,D28,D32,D36,D40,D44,D48,D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92,D96,D100,D104,D108,D112,D116,D120)</f>
@@ -396,11 +500,19 @@
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">AVERAGE(E4,E8,E12,E16,E20,E24,E28,E32,E36,E40,E44,E48,E52,E56,E60,E64,E68,E72,E76,E80,E84,E88,E92,E96,E100,E104,E108,E112,E116,E120)</f>
-        <v>702.292857142857</v>
+        <v>702.185714285714</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E4,E8,E12,E16,E20,E24,E28,E32,E36,E40,E44,E48,E52,E56,E60,E64,E68,E72,E76,E80,E84,E88,E92,E96,E100,E104,E108,E112,E116,E120)</f>
-        <v>0.803341236870817</v>
+        <v>0.883830562146959</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <f aca="false">AVERAGE(F4,F8,F12,F16,F20,F24,F28,F32,F36,F40,F44,F48,F52,F56,F60,F64,F68,F72,F76,F80,F84,F88,F92,F96,F100,F104,F108,F112,F116,F120)</f>
+        <v>1964.56666666667</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4,F8,F12,F16,F20,F24,F28,F32,F36,F40,F44,F48,F52,F56,F60,F64,F68,F72,F76,F80,F84,F88,F92,F96,F100,F104,F108,F112,F116,F120)</f>
+        <v>106.047059784272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,38 +520,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1599</v>
+        <v>507.277777777778</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>702</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>1975</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">AVERAGE(B5,B9,B13,B17,B21,B25,B29,B33,B37,B41,B45,B49,B53,B57,B61,B65,B69,B73,B77,B81,B85,B89,B93,B97,B101,B105,B109,B113,B117,B121)</f>
-        <v>17.2333333333333</v>
+        <v>19.1333333333333</v>
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B5,B9,B13,B17,B21,B25,B29,B33,B37,B41,B45,B49,B53,B57,B61,B65,B69,B73,B77,B81,B85,B89,B93,B97,B101,B105,B109,B113,B117,B121)</f>
-        <v>4.49209181661382</v>
+        <v>4.75207556991913</v>
       </c>
       <c r="M5" s="1" t="n">
         <f aca="false">AVERAGE(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61,C65,C69,C73,C77,C81,C85,C89,C93,C97,C101,C105,C109,C113,C117,C121)</f>
-        <v>602.588877476554</v>
+        <v>504.996317676557</v>
       </c>
       <c r="N5" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61,C65,C69,C73,C77,C81,C85,C89,C93,C97,C101,C105,C109,C113,C117,C121)</f>
-        <v>240.11042477726</v>
+        <v>124.125742555412</v>
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">AVERAGE(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45,D49,D53,D57,D61,D65,D69,D73,D77,D81,D85,D89,D93,D97,D101,D105,D109,D113,D117,D121)</f>
@@ -451,11 +563,19 @@
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">AVERAGE(E5,E9,E13,E17,E21,E25,E29,E33,E37,E41,E45,E49,E53,E57,E61,E65,E69,E73,E77,E81,E85,E89,E93,E97,E101,E105,E109,E113,E117,E121)</f>
-        <v>702.37380952381</v>
+        <v>702.183333333333</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E5,E9,E13,E17,E21,E25,E29,E33,E37,E41,E45,E49,E53,E57,E61,E65,E69,E73,E77,E81,E85,E89,E93,E97,E101,E105,E109,E113,E117,E121)</f>
-        <v>0.778906291756507</v>
+        <v>0.739940090729285</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <f aca="false">AVERAGE(F5,F9,F13,F17,F21,F25,F29,F33,F37,F41,F45,F49,F53,F57,F61,F65,F69,F73,F77,F81,F85,F89,F93,F97,F101,F105,F109,F113,F117,F121)</f>
+        <v>1974.13333333333</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F5,F9,F13,F17,F21,F25,F29,F33,F37,F41,F45,F49,F53,F57,F61,F65,F69,F73,F77,F81,F85,F89,F93,F97,F101,F105,F109,F113,F117,F121)</f>
+        <v>85.2856898247818</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,24 +583,27 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>433.565217391304</v>
+        <v>464.47619047619</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>701.5</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>1896</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H6" s="0" t="n">
+        <v>106.663043478261</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J6" s="1"/>
@@ -492,25 +615,26 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>495.95</v>
+        <v>373.653846153846</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>701.714285714286</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
+        <v>1921</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -521,303 +645,318 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>947.4</v>
+        <v>490.65</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>703.571428571429</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>1817</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="n">
         <f aca="false">AVERAGE(G2,G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46,G50,G54,G58,G62,G66,G70,G74,G78,G82,G86,G90,G94,G98,G102,G106,G110,G114,G118)</f>
-        <v>73.6</v>
+        <v>77.3666666666667</v>
       </c>
       <c r="L8" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(G2,G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46,G50,G54,G58,G62,G66,G70,G74,G78,G82,G86,G90,G94,G98,G102,G106,G110,G114,G118)</f>
-        <v>10.1047843453815</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+        <v>11.4440183307943</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">AVERAGE(H2,H6,H10,H14,H18,H22,H26,H30,H34,H38,H42,H46,H50,H54,H58,H62,H66,H70,H74,H78,H82,H86,H90,H94,H98,H102,H106,H110,H114,H118)</f>
+        <v>130.119820098321</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <f aca="false">_xlfn.STDEV.P(H2,H6,H10,H14,H18,H22,H26,H30,H34,H38,H42,H46,H50,H54,H58,H62,H66,H70,H74,H78,H82,H86,H90,H94,H98,H102,H106,H110,H114,H118)</f>
+        <v>19.3385096994582</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>587.470588235294</v>
+        <v>373</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>701.285714285714</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>646.666666666667</v>
+        <v>521.277777777778</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>701.571428571429</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H10" s="0" t="n">
+        <v>116.235294117647</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>457.1875</v>
+        <v>394.666666666667</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>741.230769230769</v>
+        <v>449.090909090909</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>703.428571428572</v>
+        <v>702.785714285714</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>803.5</v>
+        <v>457.190476190476</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>702.857142857143</v>
+        <v>701.571428571429</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>514.529411764706</v>
+        <v>504.5</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>703.857142857143</v>
+        <v>700.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>2197</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H14" s="0" t="n">
+        <v>112.191011235955</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>667.214285714286</v>
+        <v>499.736842105263</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>702.928571428572</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>451.636363636364</v>
+        <v>322.096774193548</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>703.357142857143</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>425.818181818182</v>
+        <v>474.285714285714</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>703.642857142857</v>
+        <v>701.071428571429</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>605.1875</v>
+        <v>468.333333333333</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>701.214285714286</v>
+        <v>702.428571428571</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H18" s="0" t="n">
+        <v>121.378048780488</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>569.823529411765</v>
+        <v>467.333333333333</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>702</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>522.263157894737</v>
+        <v>398.12</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>701.857142857143</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>3</v>
       </c>
@@ -825,65 +964,68 @@
         <v>18</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>552.888888888889</v>
+        <v>539.388888888889</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>702</v>
+        <v>703.142857142857</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>574.1875</v>
+        <v>384.5</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>703.214285714286</v>
+        <v>701.857142857143</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H22" s="0" t="n">
+        <v>126.569620253165</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>460</v>
+        <v>414.363636363636</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>702.571428571429</v>
+        <v>701</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>2</v>
       </c>
@@ -891,159 +1033,165 @@
         <v>14</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>595</v>
+        <v>714.214285714286</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>700.857142857143</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>511.833333333333</v>
+        <v>564.764705882353</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>401.166666666667</v>
+        <v>451.6</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>701.928571428571</v>
+        <v>702.285714285714</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>1952</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158.079365079365</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>551.882352941176</v>
+        <v>564.928571428571</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>701.5</v>
+        <v>702</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>612.6</v>
+        <v>766.076923076923</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>702.642857142857</v>
+        <v>702</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>490.35</v>
+        <v>612.9375</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>551.222222222222</v>
+        <v>475.333333333333</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>702.785714285714</v>
+        <v>701.857142857143</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>1992</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138.638888888889</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>478.25</v>
+        <v>616.375</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>14</v>
@@ -1052,308 +1200,317 @@
         <v>701.857142857143</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>396.84</v>
+        <v>479.842105263158</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>702.285714285714</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>464.8</v>
+        <v>603.625</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>703.357142857143</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>418.913043478261</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>160.409836065574</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>688.384615384615</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>702.642857142857</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>571.823529411765</v>
+        <v>674.071428571429</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>703.071428571429</v>
+        <v>701.5</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>547.625</v>
+        <v>978.5</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>703.071428571429</v>
+        <v>701.428571428571</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>362.076923076923</v>
+        <v>599</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>702.928571428572</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>634.466666666667</v>
+        <v>307.78125</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>701.142857142857</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H38" s="0" t="n">
+        <v>109.433333333333</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>464.714285714286</v>
+        <v>532.166666666667</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>701.785714285714</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>621.5</v>
+        <v>396.083333333333</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>701.857142857143</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>473.952380952381</v>
+        <v>384.6875</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>701.785714285714</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>425.666666666667</v>
+        <v>561.235294117647</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>702</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.987341772152</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>669.214285714286</v>
+        <v>523.842105263158</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>703.642857142857</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>447.761904761905</v>
+        <v>463.4</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>703.714285714286</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1134.625</v>
+        <v>429.086956521739</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>701.928571428571</v>
+        <v>703.142857142857</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>0</v>
       </c>
@@ -1361,25 +1518,28 @@
         <v>17</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>586.823529411765</v>
+        <v>443.470588235294</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>703</v>
+        <v>701.714285714286</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H46" s="0" t="n">
+        <v>151.090909090909</v>
+      </c>
+      <c r="I46" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>1</v>
       </c>
@@ -1387,39 +1547,39 @@
         <v>19</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>506.263157894737</v>
+        <v>524.842105263158</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>702.571428571429</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>848.090909090909</v>
+        <v>751.692307692308</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>701.642857142857</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>3</v>
       </c>
@@ -1427,277 +1587,286 @@
         <v>17</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>564.294117647059</v>
+        <v>583.705882352941</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>702.5</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>385.8</v>
+        <v>517.352941176471</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>703</v>
+        <v>701.571428571429</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0</v>
+        <v>1993</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158.634920634921</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>521.368421052632</v>
+        <v>713.857142857143</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>702.785714285714</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>328.586206896552</v>
+        <v>666.2</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>702.857142857143</v>
+        <v>703.142857142857</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>437.818181818182</v>
+        <v>581.117647058824</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>702.642857142857</v>
+        <v>703.142857142857</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>499.65</v>
+        <v>713.357142857143</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>702.928571428572</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0</v>
+        <v>2058</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H54" s="0" t="n">
+        <v>138.708333333333</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>759.384615384615</v>
+        <v>582.411764705882</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>702.5</v>
+        <v>701.785714285714</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>601.5</v>
+        <v>433.227272727273</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>645.4</v>
+        <v>476.631578947368</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>701.714285714286</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>343.928571428571</v>
+        <v>699</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>702.571428571429</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0</v>
+        <v>1956</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163.1</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>397.3</v>
+        <v>855.272727272727</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>703.357142857143</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>458.428571428571</v>
+        <v>733.923076923077</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>702.928571428572</v>
+        <v>702.285714285714</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>745.666666666667</v>
+        <v>434.090909090909</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>703.5</v>
+        <v>702</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>0</v>
       </c>
@@ -1705,131 +1874,137 @@
         <v>21</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>467.285714285714</v>
+        <v>413.809523809524</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>702.571428571429</v>
+        <v>702.785714285714</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132.648648648649</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>387.56</v>
+        <v>701.142857142857</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>703.071428571429</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>692</v>
+        <v>426.434782608696</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>588.176470588235</v>
+        <v>587.75</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>703.5</v>
+        <v>702.5</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>540.166666666667</v>
+        <v>612.25</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>700.142857142857</v>
+        <v>701.857142857143</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0</v>
+        <v>2002</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133.16</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>526.105263157895</v>
+        <v>440.333333333333</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>700.214285714286</v>
+        <v>702.928571428572</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>2</v>
       </c>
@@ -1837,265 +2012,274 @@
         <v>18</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>550.611111111111</v>
+        <v>554.833333333333</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>700</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>644.8</v>
+        <v>454.2</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>701.5</v>
+        <v>702.857142857143</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>554.6</v>
+        <v>705.615384615385</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0</v>
+        <v>1911</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H70" s="0" t="n">
+        <v>136.710144927536</v>
+      </c>
+      <c r="I70" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>622.666666666667</v>
+        <v>789.636363636364</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>702.642857142857</v>
+        <v>703.071428571429</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>491.3</v>
+        <v>356.458333333333</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>703.071428571429</v>
+        <v>704.071428571429</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>446.590909090909</v>
+        <v>449.190476190476</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>702.785714285714</v>
+        <v>703.714285714286</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>536.777777777778</v>
+        <v>460.619047619048</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>701.428571428571</v>
+        <v>701.642857142857</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H74" s="0" t="n">
+        <v>109.177777777778</v>
+      </c>
+      <c r="I74" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>405.818181818182</v>
+        <v>350.928571428571</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>702.428571428571</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>439.285714285714</v>
+        <v>587.8</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>702</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>535.333333333333</v>
+        <v>359.423076923077</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>422.913043478261</v>
+        <v>474.75</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>701.857142857143</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0</v>
+        <v>1949</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119.530120481928</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>705.857142857143</v>
+        <v>542.777777777778</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>702.928571428572</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>443.272727272727</v>
+        <v>431.347826086957</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>14</v>
@@ -2104,182 +2288,188 @@
         <v>702</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B81" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>421.772727272727</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>702.071428571429</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>498.4375</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>701.5</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>134.112676056338</v>
+      </c>
+      <c r="I82" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C81" s="0" t="n">
-        <v>751.615384615385</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>701.642857142857</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>335.384615384615</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>701.714285714286</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>453.318181818182</v>
+        <v>366.230769230769</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.5</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>579.0625</v>
+        <v>553.352941176471</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>701.714285714286</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>707.461538461538</v>
+        <v>666.75</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>702</v>
+        <v>701.785714285714</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>673.214285714286</v>
+        <v>450.136363636364</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>700.428571428571</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119.313253012048</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>450.227272727273</v>
+        <v>509.21052631579</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>700.785714285714</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>631.4</v>
+        <v>431.318181818182</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>701.285714285714</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>3</v>
       </c>
@@ -2287,535 +2477,553 @@
         <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>443.1</v>
+        <v>470.55</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>700.928571428571</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>384.115384615385</v>
+        <v>536.5</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>703.285714285714</v>
+        <v>700.857142857143</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H90" s="0" t="n">
+        <v>122.925925925926</v>
+      </c>
+      <c r="I90" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>324.896551724138</v>
+        <v>366.384615384615</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>704.357142857143</v>
+        <v>701.571428571429</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>861.090909090909</v>
+        <v>524.052631578947</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>703.928571428571</v>
+        <v>700.571428571429</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>361.08</v>
+        <v>526.666666666667</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>704.357142857143</v>
+        <v>700.785714285714</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>481.65</v>
+        <v>499.333333333333</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>701.571428571429</v>
+        <v>703.571428571429</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0</v>
+        <v>1788</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H94" s="0" t="n">
+        <v>139.614285714286</v>
+      </c>
+      <c r="I94" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>530.611111111111</v>
+        <v>373.368421052632</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>701.071428571429</v>
+        <v>702.928571428572</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>543.25</v>
+        <v>465.380952380952</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>703.571428571429</v>
+        <v>703.214285714286</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>477.45</v>
+        <v>506.866666666667</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>702.785714285714</v>
+        <v>702.5</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>465.823529411765</v>
+        <v>434.565217391304</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>702.928571428572</v>
+        <v>701.428571428571</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>0</v>
+        <v>2045</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H98" s="0" t="n">
+        <v>119.035714285714</v>
+      </c>
+      <c r="I98" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>474.047619047619</v>
+        <v>405</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>701.571428571429</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>415.333333333333</v>
+        <v>450.5</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>701.857142857143</v>
+        <v>700.785714285714</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>490.1</v>
+        <v>624.9375</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>701.5</v>
+        <v>701.071428571429</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>391.541666666667</v>
+        <v>516.473684210526</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>700.785714285714</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H102" s="0" t="n">
+        <v>146.462686567164</v>
+      </c>
+      <c r="I102" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>343</v>
+        <v>581.1875</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>702.5</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>526.388888888889</v>
+        <v>562.764705882353</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>702.857142857143</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>488.8</v>
+        <v>446.866666666667</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>702.928571428572</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>604.066666666667</v>
+        <v>495.736842105263</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>702.857142857143</v>
+        <v>700.857142857143</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0</v>
+        <v>2097</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>58</v>
       </c>
       <c r="H106" s="0" t="n">
+        <v>170.448275862069</v>
+      </c>
+      <c r="I106" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>366.941176470588</v>
+        <v>823.833333333333</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>782.916666666667</v>
+        <v>504.058823529412</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>701.428571428571</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>676.714285714286</v>
+        <v>951.3</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B110" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>374.416666666667</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>702.285714285714</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>90.0642201834862</v>
+      </c>
+      <c r="I110" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>645.461538461538</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E110" s="0" t="n">
-        <v>700.857142857143</v>
-      </c>
-      <c r="F110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>459.857142857143</v>
+        <v>327.233333333333</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>701.5</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>374.76</v>
+        <v>431.761904761905</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>701.428571428571</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>472.933333333333</v>
+        <v>284.323529411765</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>700.928571428571</v>
+        <v>702.571428571429</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>0</v>
       </c>
@@ -2823,168 +3031,174 @@
         <v>22</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>355.636363636364</v>
+        <v>438.863636363636</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.569620253165</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>299.758620689655</v>
+        <v>699.416666666667</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>701.285714285714</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>363.041666666667</v>
+        <v>398.782608695652</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>703.214285714286</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>559.588235294118</v>
+        <v>450.909090909091</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>628.933333333333</v>
+        <v>451.136363636364</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>703.285714285714</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110.277777777778</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>487.45</v>
+        <v>517.578947368421</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>702</v>
+        <v>702.928571428572</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>664.8</v>
+        <v>368.545454545455</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>703.5</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>634.428571428571</v>
+        <v>327.592592592593</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>701.714285714286</v>
+        <v>703.571428571429</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>0</v>
+        <v>1835</v>
       </c>
     </row>
   </sheetData>
